--- a/42.xlsx
+++ b/42.xlsx
@@ -601,7 +601,8 @@
     <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="13.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
-    <col min="8" max="9" width="11.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="7.42857142857143" customWidth="1"/>
     <col min="10" max="10" width="10.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
@@ -660,13 +661,13 @@
         <v>13</v>
       </c>
       <c r="H2" s="2">
-        <v>3981093485</v>
+        <v>110019000</v>
       </c>
       <c r="I2" s="2">
-        <v>3635208693</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>345884792</v>
+        <v>110019000</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
@@ -816,13 +817,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="2">
-        <v>10274261</v>
+        <v>3811101</v>
       </c>
       <c r="I7" s="2">
-        <v>10110661</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>163600</v>
+        <v>3811101</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75">
@@ -912,10 +913,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="2">
-        <v>414834</v>
+        <v>349820</v>
       </c>
       <c r="I10" s="2">
-        <v>65014</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
         <v>349820</v>

--- a/42.xlsx
+++ b/42.xlsx
@@ -601,8 +601,7 @@
     <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="13.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="7.42857142857143" customWidth="1"/>
+    <col min="8" max="9" width="11.2857142857143" customWidth="1"/>
     <col min="10" max="10" width="10.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
@@ -661,13 +660,13 @@
         <v>13</v>
       </c>
       <c r="H2" s="2">
-        <v>110019000</v>
+        <v>3981093485</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>3635208693</v>
       </c>
       <c r="J2" s="2">
-        <v>110019000</v>
+        <v>345884792</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
@@ -817,13 +816,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="2">
-        <v>3811101</v>
+        <v>10274261</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>10110661</v>
       </c>
       <c r="J7" s="2">
-        <v>3811101</v>
+        <v>163600</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75">
@@ -913,10 +912,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="2">
-        <v>349820</v>
+        <v>414834</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>65014</v>
       </c>
       <c r="J10" s="2">
         <v>349820</v>

--- a/42.xlsx
+++ b/42.xlsx
@@ -601,8 +601,8 @@
     <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="13.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
-    <col min="8" max="9" width="11.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="10.2857142857143" customWidth="1"/>
+    <col min="8" max="9" width="10.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="9.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75">
@@ -660,13 +660,13 @@
         <v>13</v>
       </c>
       <c r="H2" s="2">
-        <v>3981093485</v>
+        <v>437075509</v>
       </c>
       <c r="I2" s="2">
-        <v>3635208693</v>
+        <v>374516000</v>
       </c>
       <c r="J2" s="2">
-        <v>345884792</v>
+        <v>62559509</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
@@ -816,13 +816,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="2">
-        <v>10274261</v>
+        <v>5064771</v>
       </c>
       <c r="I7" s="2">
-        <v>10110661</v>
+        <v>1901318</v>
       </c>
       <c r="J7" s="2">
-        <v>163600</v>
+        <v>3163453</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75">
@@ -912,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="H10" s="2">
-        <v>414834</v>
+        <v>349820</v>
       </c>
       <c r="I10" s="2">
-        <v>65014</v>
+        <v>39470</v>
       </c>
       <c r="J10" s="2">
-        <v>349820</v>
+        <v>310350</v>
       </c>
     </row>
     <row r="11" ht="12.75"/>

--- a/42.xlsx
+++ b/42.xlsx
@@ -601,8 +601,8 @@
     <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="13.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
-    <col min="8" max="9" width="10.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="9.28571428571429" customWidth="1"/>
+    <col min="8" max="8" width="11.2857142857143" customWidth="1"/>
+    <col min="9" max="10" width="10.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75">
@@ -660,13 +660,13 @@
         <v>13</v>
       </c>
       <c r="H2" s="2">
-        <v>437075509</v>
+        <v>1229571864</v>
       </c>
       <c r="I2" s="2">
-        <v>374516000</v>
+        <v>762122000</v>
       </c>
       <c r="J2" s="2">
-        <v>62559509</v>
+        <v>467449864</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
@@ -816,13 +816,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="2">
-        <v>5064771</v>
+        <v>10654701</v>
       </c>
       <c r="I7" s="2">
-        <v>1901318</v>
+        <v>8664851</v>
       </c>
       <c r="J7" s="2">
-        <v>3163453</v>
+        <v>1989850</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75">
@@ -915,10 +915,10 @@
         <v>349820</v>
       </c>
       <c r="I10" s="2">
-        <v>39470</v>
+        <v>59370</v>
       </c>
       <c r="J10" s="2">
-        <v>310350</v>
+        <v>290450</v>
       </c>
     </row>
     <row r="11" ht="12.75"/>
